--- a/heuristic_minimax.xlsx
+++ b/heuristic_minimax.xlsx
@@ -217,24 +217,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet!$A$2:$A$6</c:f>
+              <c:f>Sheet!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>1253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>3756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>5178</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>7798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7762</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -242,7 +251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B156-4789-BFB8-6A7D01F00735}"/>
+              <c16:uniqueId val="{00000000-202E-4F86-9252-D5FFB8057BC9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -256,11 +265,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="340778783"/>
-        <c:axId val="340772543"/>
+        <c:axId val="1573268576"/>
+        <c:axId val="1573271072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="340778783"/>
+        <c:axId val="1573268576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -302,7 +311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340772543"/>
+        <c:crossAx val="1573271072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -310,7 +319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340772543"/>
+        <c:axId val="1573271072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -361,278 +370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340778783"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Thời gian</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.2470474243164059E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.000522613525391E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.300048828125E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.502513885498047E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0056705474853524E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-09EE-4FE5-8F8A-BDF0977DC4E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="340779199"/>
-        <c:axId val="340772127"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="340779199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="340772127"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="340772127"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="340779199"/>
+        <c:crossAx val="1573268576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -721,46 +459,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1277,536 +975,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1820,36 +1002,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2143,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,42 +1313,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>64</v>
+        <v>1253</v>
       </c>
       <c r="B2">
-        <v>2.2470474243164059E-2</v>
+        <v>0.4197688102722168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>36</v>
+        <v>3756</v>
       </c>
       <c r="B3">
-        <v>2.000522613525391E-2</v>
+        <v>1.1503438949584961</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>16</v>
+        <v>5178</v>
       </c>
       <c r="B4">
-        <v>1.300048828125E-2</v>
+        <v>1.456171989440918</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>6729</v>
       </c>
       <c r="B5">
-        <v>1.502513885498047E-2</v>
+        <v>1.8832418918609619</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>7798</v>
       </c>
       <c r="B6">
-        <v>4.0056705474853524E-3</v>
+        <v>2.1834263801574711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7762</v>
+      </c>
+      <c r="B7">
+        <v>2.512359619140625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7414</v>
+      </c>
+      <c r="B8">
+        <v>2.4969136714935298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7141</v>
+      </c>
+      <c r="B9">
+        <v>2.2687828540802002</v>
       </c>
     </row>
   </sheetData>
